--- a/fsgf.xlsx
+++ b/fsgf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSGF\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F3F90-23A2-4BE1-9808-F8848030EAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDD375-BFD0-40DB-A415-479481EAB517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="18225" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,21 +215,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -237,45 +231,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +579,7 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:A118"/>
+      <selection activeCell="A4" sqref="A4:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -919,7 +880,7 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>24</v>
       </c>
     </row>
@@ -939,7 +900,7 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>49</v>
       </c>
     </row>
@@ -959,7 +920,7 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>11</v>
       </c>
     </row>
@@ -979,7 +940,7 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>4</v>
       </c>
     </row>
@@ -999,7 +960,7 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>13</v>
       </c>
     </row>
@@ -1019,7 +980,7 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>10</v>
       </c>
     </row>
@@ -1039,7 +1000,7 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>82</v>
       </c>
     </row>
@@ -1059,7 +1020,7 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>125</v>
       </c>
     </row>
@@ -1079,7 +1040,7 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>33</v>
       </c>
     </row>
@@ -1099,7 +1060,7 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>49</v>
       </c>
     </row>
@@ -1119,7 +1080,7 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>61</v>
       </c>
     </row>
@@ -1139,7 +1100,7 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>17</v>
       </c>
     </row>
@@ -1159,7 +1120,7 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>65</v>
       </c>
     </row>
@@ -1179,7 +1140,7 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>6</v>
       </c>
     </row>
@@ -1199,7 +1160,7 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>90</v>
       </c>
     </row>
@@ -1219,7 +1180,7 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>7</v>
       </c>
     </row>
@@ -1239,7 +1200,7 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>13</v>
       </c>
     </row>
@@ -1259,7 +1220,7 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>13</v>
       </c>
     </row>
@@ -1279,7 +1240,7 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>62</v>
       </c>
     </row>
@@ -1299,7 +1260,7 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>9</v>
       </c>
     </row>
@@ -1307,19 +1268,19 @@
       <c r="A35">
         <v>2026</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
         <v>3</v>
       </c>
     </row>
@@ -1327,19 +1288,19 @@
       <c r="A36">
         <v>2026</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
@@ -1347,19 +1308,19 @@
       <c r="A37">
         <v>2026</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
         <v>0</v>
       </c>
     </row>
@@ -1367,19 +1328,19 @@
       <c r="A38">
         <v>2026</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
     </row>
@@ -1387,19 +1348,19 @@
       <c r="A39">
         <v>2026</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
         <v>4</v>
       </c>
     </row>
@@ -1407,19 +1368,19 @@
       <c r="A40">
         <v>2026</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
         <v>4</v>
       </c>
     </row>
@@ -1427,19 +1388,19 @@
       <c r="A41">
         <v>2026</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
         <v>43</v>
       </c>
     </row>
@@ -1447,19 +1408,19 @@
       <c r="A42">
         <v>2026</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
         <v>30</v>
       </c>
     </row>
@@ -1467,19 +1428,19 @@
       <c r="A43">
         <v>2026</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
         <v>3</v>
       </c>
     </row>
@@ -1487,19 +1448,19 @@
       <c r="A44">
         <v>2026</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
         <v>13</v>
       </c>
     </row>
@@ -1507,19 +1468,19 @@
       <c r="A45">
         <v>2026</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <v>8</v>
       </c>
     </row>
@@ -1527,19 +1488,19 @@
       <c r="A46">
         <v>2026</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
         <v>11</v>
       </c>
     </row>
@@ -1547,19 +1508,19 @@
       <c r="A47">
         <v>2026</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
         <v>2</v>
       </c>
     </row>
@@ -1567,19 +1528,19 @@
       <c r="A48">
         <v>2026</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
         <v>2</v>
       </c>
     </row>
@@ -1587,19 +1548,19 @@
       <c r="A49">
         <v>2026</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
         <v>6</v>
       </c>
     </row>
@@ -1607,19 +1568,19 @@
       <c r="A50">
         <v>2026</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
         <v>2</v>
       </c>
     </row>
@@ -1627,19 +1588,19 @@
       <c r="A51">
         <v>2026</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
         <v>14</v>
       </c>
     </row>
@@ -1647,19 +1608,19 @@
       <c r="A52">
         <v>2026</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
         <v>7</v>
       </c>
     </row>
@@ -1667,19 +1628,19 @@
       <c r="A53">
         <v>2026</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
         <v>3</v>
       </c>
     </row>
@@ -1687,19 +1648,19 @@
       <c r="A54">
         <v>2026</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
         <v>0</v>
       </c>
     </row>
@@ -1707,19 +1668,19 @@
       <c r="A55">
         <v>2026</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
         <v>31</v>
       </c>
     </row>
@@ -1727,19 +1688,19 @@
       <c r="A56">
         <v>2026</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56">
         <v>7</v>
       </c>
     </row>
@@ -1747,19 +1708,19 @@
       <c r="A57">
         <v>2026</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
         <v>10</v>
       </c>
     </row>
@@ -1767,19 +1728,19 @@
       <c r="A58">
         <v>2026</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58">
         <v>8</v>
       </c>
     </row>
@@ -1787,19 +1748,19 @@
       <c r="A59">
         <v>2026</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
         <v>30</v>
       </c>
     </row>
@@ -1807,19 +1768,19 @@
       <c r="A60">
         <v>2026</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
         <v>0</v>
       </c>
     </row>
@@ -1827,19 +1788,19 @@
       <c r="A61">
         <v>2026</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
         <v>44</v>
       </c>
     </row>
@@ -1847,19 +1808,19 @@
       <c r="A62">
         <v>2026</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62">
         <v>1</v>
       </c>
     </row>
@@ -1867,19 +1828,19 @@
       <c r="A63">
         <v>2026</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
         <v>14</v>
       </c>
     </row>
@@ -1887,19 +1848,19 @@
       <c r="A64">
         <v>2026</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64">
         <v>3</v>
       </c>
     </row>
@@ -1907,19 +1868,19 @@
       <c r="A65">
         <v>2026</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="5">
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
         <v>3</v>
       </c>
     </row>
@@ -1927,19 +1888,19 @@
       <c r="A66">
         <v>2026</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
         <v>19</v>
       </c>
     </row>
@@ -1947,19 +1908,19 @@
       <c r="A67">
         <v>2026</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
         <v>2</v>
       </c>
     </row>
@@ -1967,19 +1928,19 @@
       <c r="A68">
         <v>2026</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68">
         <v>0</v>
       </c>
     </row>
@@ -1987,19 +1948,19 @@
       <c r="A69">
         <v>2026</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
         <v>7</v>
       </c>
     </row>
@@ -2007,19 +1968,19 @@
       <c r="A70">
         <v>2026</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
         <v>2</v>
       </c>
     </row>
@@ -2027,19 +1988,19 @@
       <c r="A71">
         <v>2026</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
         <v>1</v>
       </c>
     </row>
@@ -2047,19 +2008,19 @@
       <c r="A72">
         <v>2026</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72">
         <v>2</v>
       </c>
     </row>
@@ -2067,19 +2028,19 @@
       <c r="A73">
         <v>2026</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
         <v>47</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
         <v>2</v>
       </c>
     </row>
@@ -2087,19 +2048,19 @@
       <c r="A74">
         <v>2026</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74">
         <v>1</v>
       </c>
     </row>
@@ -2107,19 +2068,19 @@
       <c r="A75">
         <v>2026</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
         <v>69</v>
       </c>
     </row>
@@ -2127,19 +2088,19 @@
       <c r="A76">
         <v>2026</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76">
         <v>41</v>
       </c>
     </row>
@@ -2147,19 +2108,19 @@
       <c r="A77">
         <v>2026</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
         <v>3</v>
       </c>
     </row>
@@ -2167,19 +2128,19 @@
       <c r="A78">
         <v>2026</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78">
         <v>3</v>
       </c>
     </row>
@@ -2187,19 +2148,19 @@
       <c r="A79">
         <v>2026</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
         <v>5</v>
       </c>
     </row>
@@ -2207,19 +2168,19 @@
       <c r="A80">
         <v>2026</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
         <v>50</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80">
         <v>3</v>
       </c>
     </row>
@@ -2227,19 +2188,19 @@
       <c r="A81">
         <v>2026</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
         <v>11</v>
       </c>
     </row>
@@ -2247,19 +2208,19 @@
       <c r="A82">
         <v>2026</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82">
         <v>6</v>
       </c>
     </row>
@@ -2267,19 +2228,19 @@
       <c r="A83">
         <v>2026</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
         <v>51</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
         <v>16</v>
       </c>
     </row>
@@ -2287,19 +2248,19 @@
       <c r="A84">
         <v>2026</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
         <v>51</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
         <v>13</v>
       </c>
     </row>
@@ -2307,19 +2268,19 @@
       <c r="A85">
         <v>2026</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
         <v>23</v>
       </c>
     </row>
@@ -2327,19 +2288,19 @@
       <c r="A86">
         <v>2026</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
         <v>52</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86">
         <v>13</v>
       </c>
     </row>
@@ -2347,19 +2308,19 @@
       <c r="A87">
         <v>2026</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
         <v>53</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
         <v>18</v>
       </c>
     </row>
@@ -2367,19 +2328,19 @@
       <c r="A88">
         <v>2026</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88">
         <v>2</v>
       </c>
     </row>
@@ -2387,19 +2348,19 @@
       <c r="A89">
         <v>2026</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
         <v>53</v>
       </c>
     </row>
@@ -2407,19 +2368,19 @@
       <c r="A90">
         <v>2026</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90">
         <v>4</v>
       </c>
     </row>
@@ -2427,19 +2388,19 @@
       <c r="A91">
         <v>2026</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
         <v>55</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91">
         <v>18</v>
       </c>
     </row>
@@ -2447,19 +2408,19 @@
       <c r="A92">
         <v>2026</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92">
         <v>2</v>
       </c>
     </row>
@@ -2467,19 +2428,19 @@
       <c r="A93">
         <v>2026</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
         <v>56</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="5">
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
         <v>7</v>
       </c>
     </row>
@@ -2487,19 +2448,19 @@
       <c r="A94">
         <v>2026</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
         <v>56</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94">
         <v>8</v>
       </c>
     </row>
@@ -2687,19 +2648,19 @@
       <c r="A104">
         <v>2025</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>57</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
         <v>51</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="3">
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104">
         <v>16</v>
       </c>
     </row>
@@ -2707,19 +2668,19 @@
       <c r="A105">
         <v>2025</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>57</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
         <v>51</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105">
         <v>13</v>
       </c>
     </row>
@@ -2727,19 +2688,19 @@
       <c r="A106">
         <v>2025</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>57</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
         <v>52</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="3">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106">
         <v>23</v>
       </c>
     </row>
@@ -2747,19 +2708,19 @@
       <c r="A107">
         <v>2025</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107">
         <v>13</v>
       </c>
     </row>
@@ -2767,19 +2728,19 @@
       <c r="A108">
         <v>2025</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
         <v>53</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="3">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
         <v>18</v>
       </c>
     </row>
@@ -2787,19 +2748,19 @@
       <c r="A109">
         <v>2025</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
         <v>53</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="3">
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109">
         <v>2</v>
       </c>
     </row>
@@ -2807,19 +2768,19 @@
       <c r="A110">
         <v>2025</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="3">
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110">
         <v>53</v>
       </c>
     </row>
@@ -2827,19 +2788,19 @@
       <c r="A111">
         <v>2025</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
         <v>54</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="3">
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111">
         <v>4</v>
       </c>
     </row>
@@ -2847,19 +2808,19 @@
       <c r="A112">
         <v>2025</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="3">
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112">
         <v>18</v>
       </c>
     </row>
@@ -2867,19 +2828,19 @@
       <c r="A113">
         <v>2025</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
         <v>55</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="3">
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113">
         <v>2</v>
       </c>
     </row>
@@ -3067,19 +3028,19 @@
       <c r="A123">
         <v>2023</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>57</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
         <v>51</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="3">
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
         <v>16</v>
       </c>
     </row>
@@ -3087,19 +3048,19 @@
       <c r="A124">
         <v>2023</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
         <v>51</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="3">
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124">
         <v>16</v>
       </c>
     </row>
@@ -3107,19 +3068,19 @@
       <c r="A125">
         <v>2023</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
         <v>51</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="3">
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125">
         <v>13</v>
       </c>
     </row>
@@ -3127,19 +3088,19 @@
       <c r="A126">
         <v>2023</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>57</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
         <v>52</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="3">
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126">
         <v>23</v>
       </c>
     </row>
@@ -3147,19 +3108,19 @@
       <c r="A127">
         <v>2023</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s">
         <v>57</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
         <v>52</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="3">
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127">
         <v>13</v>
       </c>
     </row>
@@ -3167,19 +3128,19 @@
       <c r="A128">
         <v>2023</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
         <v>53</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="3">
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128">
         <v>18</v>
       </c>
     </row>
@@ -3187,19 +3148,19 @@
       <c r="A129">
         <v>2023</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
         <v>53</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="3">
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129">
         <v>2</v>
       </c>
     </row>
@@ -3207,19 +3168,19 @@
       <c r="A130">
         <v>2023</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
         <v>54</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="3">
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130">
         <v>53</v>
       </c>
     </row>
@@ -3227,19 +3188,19 @@
       <c r="A131">
         <v>2023</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
         <v>54</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="3">
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131">
         <v>4</v>
       </c>
     </row>
@@ -3247,19 +3208,19 @@
       <c r="A132">
         <v>2023</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
         <v>55</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="3">
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132">
         <v>18</v>
       </c>
     </row>
@@ -3267,19 +3228,19 @@
       <c r="A133">
         <v>2023</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
         <v>55</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="3">
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133">
         <v>2</v>
       </c>
     </row>
@@ -3287,19 +3248,19 @@
       <c r="A134">
         <v>2023</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="4" t="s">
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
         <v>56</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134">
         <v>7</v>
       </c>
     </row>
@@ -3307,19 +3268,19 @@
       <c r="A135">
         <v>2023</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" t="s">
         <v>59</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" s="4" t="s">
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
         <v>56</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135">
         <v>8</v>
       </c>
     </row>
